--- a/data/trans_dic/P62-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P62-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.3614340674237611</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.449471475153886</v>
+        <v>0.4494714751538862</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3230369564639203</v>
@@ -697,7 +697,7 @@
         <v>0.3283366953064428</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.4170258589377148</v>
+        <v>0.4170258589377147</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5277469716490709</v>
+        <v>0.5282709443995434</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2958678071846877</v>
+        <v>0.2949937234532962</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3275421562952976</v>
+        <v>0.3300178615887727</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3894779985501139</v>
+        <v>0.3935748630216835</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2883324791973058</v>
+        <v>0.2880680091188097</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2500952418474813</v>
+        <v>0.2510554339197464</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2682995359057954</v>
+        <v>0.2665721461828003</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3548963494675478</v>
+        <v>0.353615774888392</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3771570479539887</v>
+        <v>0.3760999750475561</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2809117396643659</v>
+        <v>0.2795968968545147</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3046069914383754</v>
+        <v>0.3042490860280029</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3861895422639585</v>
+        <v>0.3845488083276037</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6403577364781808</v>
+        <v>0.6395204168498114</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3678385082358916</v>
+        <v>0.3667129560045023</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3959438782838431</v>
+        <v>0.3966050499333066</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5083197425777832</v>
+        <v>0.5059508875415983</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3569122042659334</v>
+        <v>0.3604201663445267</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3098248947001375</v>
+        <v>0.3112941597663852</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3313391170144446</v>
+        <v>0.3301712792856338</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4357352437068533</v>
+        <v>0.4345062487760054</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4363195381229834</v>
+        <v>0.4393274737055965</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3270326881341097</v>
+        <v>0.3284228512073035</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3507866858251083</v>
+        <v>0.3508137613125405</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4525271401591385</v>
+        <v>0.4567330901732847</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.2731827878207805</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.3554638218375068</v>
+        <v>0.3554638218375067</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3496494899372835</v>
@@ -833,7 +833,7 @@
         <v>0.3528541647045823</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.4431317497506896</v>
+        <v>0.4431317497506899</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5215284028573562</v>
+        <v>0.5279021802677248</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.379398747874384</v>
+        <v>0.3836715643949504</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4203338461495619</v>
+        <v>0.421416119652609</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.539360862313258</v>
+        <v>0.5393801940473161</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1921235373719075</v>
+        <v>0.1939640708128045</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2643180589560979</v>
+        <v>0.2643540177672549</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2396449280231194</v>
+        <v>0.2408206357654692</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3270675003067686</v>
+        <v>0.3274288196650851</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3247876360045761</v>
+        <v>0.3251669367302802</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3234913705152699</v>
+        <v>0.3224884163115774</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3260313444021077</v>
+        <v>0.3268309260012565</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.4141594579036935</v>
+        <v>0.415909055130079</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.618823068167251</v>
+        <v>0.6250839822960569</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4663789783309798</v>
+        <v>0.4698425489107053</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5120454827366105</v>
+        <v>0.5109595101977051</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6437697185949488</v>
+        <v>0.6437561284881068</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2542514251473743</v>
+        <v>0.2554008433630914</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3280940105959731</v>
+        <v>0.3288229857113438</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3105880555106329</v>
+        <v>0.3080403035615502</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3840544909257165</v>
+        <v>0.3837197023426165</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3780918956212229</v>
+        <v>0.3759546110819602</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3746850241139046</v>
+        <v>0.3743096830481901</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3807383992764057</v>
+        <v>0.3808787493966023</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4690486474502891</v>
+        <v>0.470703468144973</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.3392346285318713</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3298485649978182</v>
+        <v>0.3298485649978184</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.3144291495673068</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4303564416704772</v>
+        <v>0.4361572328749278</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5558887735935477</v>
+        <v>0.5620412899701401</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5429365791552028</v>
+        <v>0.5468613620959369</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.515012757552532</v>
+        <v>0.5164010925328124</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1756572323810669</v>
+        <v>0.17815614556239</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2544181290201188</v>
+        <v>0.2575895761996813</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2928981239028989</v>
+        <v>0.2971901492129365</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2984022102717769</v>
+        <v>0.2981543660506737</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2853310716476824</v>
+        <v>0.2840807575375586</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3928539986226534</v>
+        <v>0.3940362802768568</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4154496220640808</v>
+        <v>0.4165588272253365</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4033758250133799</v>
+        <v>0.4032235325820072</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5295466183776003</v>
+        <v>0.5281193017523534</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6536115079673446</v>
+        <v>0.6582703773543152</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6435413820035298</v>
+        <v>0.650021972055426</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.625402303887709</v>
+        <v>0.6275460631200682</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2392495486425174</v>
+        <v>0.2387765370927671</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3288946551332375</v>
+        <v>0.3358580529757138</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3846998116778524</v>
+        <v>0.3859879810008244</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3649118715802392</v>
+        <v>0.365053020339874</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3453881865814815</v>
+        <v>0.3439762717065787</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4579164248646606</v>
+        <v>0.4581893077789385</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4912958841997589</v>
+        <v>0.4872670939279204</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4639455384579934</v>
+        <v>0.4647812783681514</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.610910096381499</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5899892012228174</v>
+        <v>0.5899892012228173</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1903565866112566</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4196457114068115</v>
+        <v>0.4224654050905141</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4467716245483234</v>
+        <v>0.4540666191373645</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5437629551244182</v>
+        <v>0.5314405077062893</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.527387341884115</v>
+        <v>0.5256508209083177</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1383081469511957</v>
+        <v>0.1336709765014094</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2420774762999802</v>
+        <v>0.2402154580651052</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2652791228052669</v>
+        <v>0.2666864346100269</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3695723243223096</v>
+        <v>0.3698624573991332</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2808025138828188</v>
+        <v>0.278417000537912</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3487709622103657</v>
+        <v>0.354961603559982</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4002110749150548</v>
+        <v>0.4056725718690349</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4615510774210029</v>
+        <v>0.4608452826333811</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5829395394369284</v>
+        <v>0.5838386757171437</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5981806041614212</v>
+        <v>0.6001477204905133</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6751721812808166</v>
+        <v>0.6783556138231879</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.646915537401849</v>
+        <v>0.650932143623708</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2581280792956251</v>
+        <v>0.2557846592405602</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3638487597600509</v>
+        <v>0.3702367699144364</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3836009050834577</v>
+        <v>0.3853817210393219</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4493319958176867</v>
+        <v>0.4549672489041945</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.380240806472474</v>
+        <v>0.3811010953059534</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4465387296428732</v>
+        <v>0.4463231645975925</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4958183276314879</v>
+        <v>0.4978987042932052</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5312291026894183</v>
+        <v>0.5295756682482713</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5143289989351573</v>
+        <v>0.5132519993476859</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4145590975790861</v>
+        <v>0.4156736853936056</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.436913508798331</v>
+        <v>0.4391598738387267</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5265838453705736</v>
+        <v>0.5277265034796794</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2283027552410863</v>
+        <v>0.2295694366406244</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2713518342259049</v>
+        <v>0.2725125221138756</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2813527506885308</v>
+        <v>0.2826034769056948</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3510176422957937</v>
+        <v>0.3508081118653797</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3387683997837699</v>
+        <v>0.3389321176008325</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3406165432306381</v>
+        <v>0.3401372583171259</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3570292064699285</v>
+        <v>0.3595899810653557</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4307193580741106</v>
+        <v>0.4306484080018939</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5668763506927399</v>
+        <v>0.5679986388440181</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4598828080828585</v>
+        <v>0.4642646833133776</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.482159246097619</v>
+        <v>0.4861979037037354</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5847808103416201</v>
+        <v>0.5862710883432144</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2645879851166562</v>
+        <v>0.2635550263200301</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3079022886184996</v>
+        <v>0.3091428670130831</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3228568564455311</v>
+        <v>0.322464556876345</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3856982378548635</v>
+        <v>0.3849960247209802</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3702712994516837</v>
+        <v>0.3702394942658682</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3704832020330578</v>
+        <v>0.3694390304613128</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3877274018464117</v>
+        <v>0.3879995667985189</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.461547924540181</v>
+        <v>0.4624977226062768</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>175870</v>
+        <v>176045</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>222860</v>
+        <v>222202</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>270518</v>
+        <v>272563</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>124311</v>
+        <v>125618</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>202042</v>
+        <v>201856</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>220210</v>
+        <v>221056</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>260496</v>
+        <v>258819</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>159342</v>
+        <v>158767</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>389969</v>
+        <v>388876</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>458938</v>
+        <v>456790</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>547324</v>
+        <v>546681</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>296654</v>
+        <v>295393</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>213397</v>
+        <v>213118</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>277071</v>
+        <v>276224</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>327012</v>
+        <v>327558</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>162242</v>
+        <v>161486</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>250097</v>
+        <v>252555</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>272802</v>
+        <v>274096</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>321702</v>
+        <v>320569</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>195638</v>
+        <v>195086</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>451142</v>
+        <v>454252</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>534288</v>
+        <v>536560</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>630301</v>
+        <v>630349</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>347611</v>
+        <v>350842</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>224694</v>
+        <v>227440</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>222639</v>
+        <v>225146</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>215235</v>
+        <v>215789</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>239476</v>
+        <v>239485</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>147022</v>
+        <v>148430</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>219116</v>
+        <v>219146</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>173534</v>
+        <v>174385</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>245799</v>
+        <v>246070</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>388473</v>
+        <v>388927</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>458001</v>
+        <v>456581</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>403036</v>
+        <v>404024</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>495137</v>
+        <v>497229</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>266612</v>
+        <v>269310</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>273681</v>
+        <v>275713</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>262197</v>
+        <v>261641</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>285834</v>
+        <v>285828</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>194565</v>
+        <v>195444</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>271985</v>
+        <v>272589</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>224906</v>
+        <v>223061</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>288626</v>
+        <v>288374</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>452230</v>
+        <v>449673</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>530481</v>
+        <v>529950</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>470664</v>
+        <v>470837</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>560758</v>
+        <v>562737</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>176342</v>
+        <v>178718</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>236492</v>
+        <v>239109</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>194051</v>
+        <v>195454</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>212800</v>
+        <v>213374</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>112005</v>
+        <v>113598</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>149920</v>
+        <v>151789</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>134713</v>
+        <v>136687</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>164305</v>
+        <v>164169</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>298853</v>
+        <v>297544</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>398627</v>
+        <v>399827</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>339564</v>
+        <v>340471</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>388778</v>
+        <v>388631</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>216985</v>
+        <v>216401</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>278066</v>
+        <v>280048</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>230008</v>
+        <v>232324</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>258412</v>
+        <v>259298</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>152554</v>
+        <v>152252</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>193807</v>
+        <v>197910</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>176935</v>
+        <v>177528</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>200926</v>
+        <v>201004</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>361756</v>
+        <v>360278</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>464646</v>
+        <v>464923</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>401556</v>
+        <v>398263</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>447155</v>
+        <v>447961</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>59517</v>
+        <v>59917</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>91351</v>
+        <v>92842</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>122251</v>
+        <v>119481</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>196117</v>
+        <v>195472</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>24848</v>
+        <v>24015</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>63670</v>
+        <v>63180</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>75750</v>
+        <v>76152</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>156737</v>
+        <v>156861</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>90272</v>
+        <v>89505</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>163045</v>
+        <v>165939</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>204257</v>
+        <v>207045</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>367381</v>
+        <v>366819</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>82676</v>
+        <v>82804</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>122309</v>
+        <v>122711</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>151795</v>
+        <v>152511</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>240566</v>
+        <v>242060</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>46374</v>
+        <v>45953</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>95698</v>
+        <v>97378</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>109537</v>
+        <v>110046</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>190564</v>
+        <v>192954</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>122240</v>
+        <v>122516</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>208750</v>
+        <v>208649</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>253053</v>
+        <v>254115</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>422843</v>
+        <v>421527</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>676686</v>
+        <v>675269</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>816665</v>
+        <v>818861</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>838959</v>
+        <v>843273</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>815274</v>
+        <v>817044</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>521274</v>
+        <v>524166</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>695142</v>
+        <v>698115</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>686649</v>
+        <v>689701</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>763543</v>
+        <v>763087</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1219202</v>
+        <v>1219792</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1543583</v>
+        <v>1541411</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1556905</v>
+        <v>1568072</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1603766</v>
+        <v>1603502</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>745821</v>
+        <v>747297</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>905951</v>
+        <v>914583</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>925840</v>
+        <v>933595</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>905377</v>
+        <v>907684</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>604123</v>
+        <v>601764</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>788775</v>
+        <v>791954</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>787941</v>
+        <v>786983</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>838981</v>
+        <v>837454</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1332579</v>
+        <v>1332465</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1678931</v>
+        <v>1674199</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1690771</v>
+        <v>1691958</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1718555</v>
+        <v>1722091</v>
       </c>
     </row>
     <row r="24">
